--- a/medicine/Psychotrope/Brasserie_artisanale_du_Dauphiné/Brasserie_artisanale_du_Dauphiné.xlsx
+++ b/medicine/Psychotrope/Brasserie_artisanale_du_Dauphiné/Brasserie_artisanale_du_Dauphiné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brasserie_artisanale_du_Dauphin%C3%A9</t>
+          <t>Brasserie_artisanale_du_Dauphiné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Brasserie artisanale du Dauphiné est une entreprise artisanale de fabrication de bière fondée en 2002 près de Grenoble en France[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brasserie artisanale du Dauphiné est une entreprise artisanale de fabrication de bière fondée en 2002 près de Grenoble en France,.
 Son enseigne commerciale a longtemps été « Fabrique Mandrin », du nom de son unique marque de bière jusqu'en 2016.
 Puis, avec la création de deux nouvelles marques — les bières des Alpes et les bières Nobow —, l'enseigne commerciale est devenue Brasserie du Dauphiné.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brasserie_artisanale_du_Dauphin%C3%A9</t>
+          <t>Brasserie_artisanale_du_Dauphiné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Produits agricoles mis en transformation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les produits agricoles mis en transformation par cette entreprise sont issus de l'agriculture conventionnelle et, pour une moindre part, de l'agriculture biologique certifiée. 
 L'orge et autres céréales sont cultivés et maltés en Europe ;
 Le houblon vient de nombreuses origines telles l'Alsace, l'Allemagne, la république Tchèque, le Royaume Uni, les États-Unis...
 L'eau provient du département de l'Isère
 Les condiments tels que la noix de Grenoble, le sapin, les plantes aromatiques, le chanvre, le miel sont issus de l'agriculture et de la nature isèroise.
-En 2017, la brasserie s’agrandit avec une nouvelle ligne d’embouteillage atteignant la capacité de 5 000 hl annuels[4]. 
+En 2017, la brasserie s’agrandit avec une nouvelle ligne d’embouteillage atteignant la capacité de 5 000 hl annuels. 
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brasserie_artisanale_du_Dauphin%C3%A9</t>
+          <t>Brasserie_artisanale_du_Dauphiné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +563,14 @@
           <t>Marques de bières de l'entreprise</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La Brasserie du Dauphiné fabrique et commercialise trois marques : Mandrin, bières des Alpes et Nobow[5].
-Les bières Mandrin[6] tirée du nom du contrebandier dauphinois, Louis Mandrin, sont des bières de dégustation, incluant pour la plupart des ingrédients du terroir dauphinois : noix de Grenoble, sapin, chanvre, etc. Elles sont labellisées marque isHere par le département de l'Isère. Elles sont distinguées lors des World Beer Awards à Londres en 2016[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Brasserie du Dauphiné fabrique et commercialise trois marques : Mandrin, bières des Alpes et Nobow.
+Les bières Mandrin tirée du nom du contrebandier dauphinois, Louis Mandrin, sont des bières de dégustation, incluant pour la plupart des ingrédients du terroir dauphinois : noix de Grenoble, sapin, chanvre, etc. Elles sont labellisées marque isHere par le département de l'Isère. Elles sont distinguées lors des World Beer Awards à Londres en 2016.
 Mandrin aux noix, première bière créée,
-Mandrin au sapin[8],
+Mandrin au sapin,
 Mandrin au miel,
 Mandrin blanche aux plantes des Alpes,
 Mandrin au chanvre,
@@ -565,8 +581,8 @@
 Blonde des Alpes
 Rousse des Alpes
 Blanche des Alpes
-Verte des Alpes à la Chartreuse Verte[9]
-La gamme Nobow[10] comporte des bières d'inspiration internationale dont deux ont été médaillées de bronze au France Bière Challenge 2018. 
+Verte des Alpes à la Chartreuse Verte
+La gamme Nobow comporte des bières d'inspiration internationale dont deux ont été médaillées de bronze au France Bière Challenge 2018. 
 Exotic Session IPA
 Black Queen
 Into The Wild IPA
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brasserie_artisanale_du_Dauphin%C3%A9</t>
+          <t>Brasserie_artisanale_du_Dauphiné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brasserie de la Frise</t>
         </is>
